--- a/SANTO_ANTONIO_DAS_MISSOES.xlsx
+++ b/SANTO_ANTONIO_DAS_MISSOES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13D03E58-F416-4053-8D65-928D00FABB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B13B285-339A-4FBF-9534-6846FAF02170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1286,7 +1286,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{D868C5DC-9E56-4A99-A795-2DD8A8322314}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{4D7F3555-4DFC-4367-A8B9-D98EEA4FDED7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1316,10 +1316,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A216D570-E529-4FEE-926A-4CCF4566E75D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50BFA1AF-B862-4BD0-A7D1-F0E5A69D5704}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1357,7 +1357,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A91B74DE-6236-4E68-B27F-FBC1C541B87B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B496C203-0F91-40A1-8797-C88829C4ED00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1420,7 +1420,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6997BFB-7E9C-408F-B379-51437803FD3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF6BA69C-F24E-4814-A530-CFD883D5F131}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1439,7 +1439,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1EE255F-557A-3C3C-D42F-CC461C2CC635}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B06F7369-F619-38E5-7F66-F58EED286952}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1488,7 +1488,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AE027D2-52F7-D486-2B45-C8155114F560}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C6513C3-D88B-9143-B708-BC8B5A39CA80}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1507,7 +1507,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FF416FC-CE1E-8F99-9BBF-00D503A8E1CE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2B47CF6-6C97-C0CA-7F7D-E4BB4C0D6606}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1538,7 +1538,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75CA597A-4429-5294-F68A-403DADDFCB33}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1D52A24-E7BA-5CE0-7D5E-A34AE7F444DD}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1569,7 +1569,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15C18F7A-48B3-A664-6AA0-9B2C38D0F2D9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E5AB7A1-4A04-E736-C011-BBD835E459B8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1612,7 +1612,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C6887BD-1E67-4770-819D-59E1E79B27CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{825F4E71-D184-45E8-9B5B-85BB6909567B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1650,7 +1650,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A981DED6-8705-429D-B67E-1EFD5ED42F55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FA2F7BB-BA5F-4F5A-A5A1-6835347D81FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1693,7 +1693,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9819BA7-81AA-4433-895C-FDE244D5E5C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2B22C4F-5276-4782-A40D-78E62DEF5D06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2006,7 +2006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8BD8C7-DAA0-40CD-8F57-E282CAF7F8D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD03D959-6574-426B-AAB7-3EA1C38D9C53}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/SANTO_ANTONIO_DAS_MISSOES.xlsx
+++ b/SANTO_ANTONIO_DAS_MISSOES.xlsx
@@ -8,27 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B13B285-339A-4FBF-9534-6846FAF02170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94372457-A917-4C61-86BD-544B7B26D1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="9" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="8" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="BENS-INTERINOS" sheetId="4" r:id="rId5"/>
     <sheet name="TABELIÕES-DOAÇÃO" sheetId="5" r:id="rId6"/>
     <sheet name="CPIP" sheetId="6" r:id="rId7"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="7" r:id="rId8"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="8" r:id="rId9"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="321">
   <si>
     <t>COMARCA</t>
   </si>
@@ -991,12 +990,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
   </si>
 </sst>
 </file>
@@ -1196,7 +1189,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1266,27 +1259,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{4D7F3555-4DFC-4367-A8B9-D98EEA4FDED7}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{EC3DFF4F-239B-4977-9F26-959C5AF0EB86}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1316,10 +1294,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50BFA1AF-B862-4BD0-A7D1-F0E5A69D5704}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABAC6EBA-BE21-4A3A-A819-92A2592E8196}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1357,7 +1335,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B496C203-0F91-40A1-8797-C88829C4ED00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59E86D85-D2A8-4937-B857-F40B90D2EF6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1420,7 +1398,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF6BA69C-F24E-4814-A530-CFD883D5F131}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ECAEC72-321B-4ED7-A0C3-0A29670FC80F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1439,7 +1417,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B06F7369-F619-38E5-7F66-F58EED286952}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1108933-9910-7720-D179-C9C903E833FF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1488,7 +1466,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C6513C3-D88B-9143-B708-BC8B5A39CA80}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{526028A1-E439-F93C-3109-37CE61D6821C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1507,7 +1485,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2B47CF6-6C97-C0CA-7F7D-E4BB4C0D6606}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA211790-E7E5-0699-4ED1-86735F01E126}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1538,7 +1516,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1D52A24-E7BA-5CE0-7D5E-A34AE7F444DD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B015357C-6F32-CED8-9B7F-E365DF162A1B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1569,7 +1547,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E5AB7A1-4A04-E736-C011-BBD835E459B8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A7C74A8-2589-ADCF-0832-03BEB9EA6F09}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1612,7 +1590,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{825F4E71-D184-45E8-9B5B-85BB6909567B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ABFE21D-7331-41A8-9252-539781498D06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1650,7 +1628,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FA2F7BB-BA5F-4F5A-A5A1-6835347D81FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D1941E0-C729-458E-8510-1E256611DC20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1693,7 +1671,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2B22C4F-5276-4782-A40D-78E62DEF5D06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52D4B9FF-7A25-4588-A892-8899F23D92AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2006,7 +1984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD03D959-6574-426B-AAB7-3EA1C38D9C53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603B48F4-D7BA-40DC-839D-6485F3BEA3F5}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2018,98 +1996,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="37"/>
-    <col min="6" max="6" width="2" style="37" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="37" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="37"/>
+    <col min="1" max="5" width="12.5703125" style="32"/>
+    <col min="6" max="6" width="2" style="32" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="32" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="36"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="36"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="36"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="36"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="36"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="36"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="36"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="36"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="36"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="36"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="36"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="36"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="36"/>
+      <c r="F13" s="31"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="36"/>
+      <c r="F14" s="31"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="36"/>
+      <c r="F15" s="31"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="36"/>
+      <c r="F16" s="31"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="36"/>
+      <c r="F17" s="31"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="36"/>
+      <c r="F18" s="31"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="36"/>
+      <c r="F19" s="31"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="36"/>
+      <c r="F20" s="31"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="36"/>
+      <c r="F21" s="31"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="36"/>
+      <c r="F22" s="31"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="36"/>
+      <c r="F23" s="31"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="36"/>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="36"/>
+      <c r="F25" s="31"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="36"/>
+      <c r="F26" s="31"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="36"/>
+      <c r="F27" s="31"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="36"/>
+      <c r="F28" s="31"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="36"/>
+      <c r="F29" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5740,52 +5718,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>322</v>
-      </c>
-      <c r="E1" s="32">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>282</v>
-      </c>
-      <c r="B2" s="35">
-        <v>17</v>
-      </c>
-      <c r="C2" s="33">
-        <v>1.124189921967994E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/SANTO_ANTONIO_DAS_MISSOES.xlsx
+++ b/SANTO_ANTONIO_DAS_MISSOES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94372457-A917-4C61-86BD-544B7B26D1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6448AF7D-E88A-4DAC-B130-4860CD096D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1264,7 +1264,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{EC3DFF4F-239B-4977-9F26-959C5AF0EB86}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{14BE5CC5-578D-4009-93D3-755066EB3B55}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1294,10 +1294,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABAC6EBA-BE21-4A3A-A819-92A2592E8196}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FD32D12-670D-4DAC-9E2A-3EB1FCD77619}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1335,7 +1335,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59E86D85-D2A8-4937-B857-F40B90D2EF6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34F10847-F33F-41F2-AD1C-6A9D59A40B24}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1398,7 +1398,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ECAEC72-321B-4ED7-A0C3-0A29670FC80F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0244519B-C84E-4D0F-B100-8A5DD1B6B979}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1417,7 +1417,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1108933-9910-7720-D179-C9C903E833FF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6346B9F1-5907-1292-7688-FE3F84E19F54}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1466,7 +1466,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{526028A1-E439-F93C-3109-37CE61D6821C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A31678B-511A-87C7-FA3B-18C7510D43F3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1485,7 +1485,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA211790-E7E5-0699-4ED1-86735F01E126}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06527EB4-C0A0-C2B5-F780-C8E74C1B437F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1516,7 +1516,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B015357C-6F32-CED8-9B7F-E365DF162A1B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67DD1EA4-9375-82C5-5AD6-C78A72C4EE82}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1547,7 +1547,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A7C74A8-2589-ADCF-0832-03BEB9EA6F09}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E3D81A2-DBE0-6D8E-4B8D-1B0BAFDF803D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1590,7 +1590,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ABFE21D-7331-41A8-9252-539781498D06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBC08B20-2528-4FB1-B15C-F09CF2F25C5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1628,7 +1628,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D1941E0-C729-458E-8510-1E256611DC20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3461F16E-CD49-406B-A8FE-99A904E14713}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1653,50 +1653,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52D4B9FF-7A25-4588-A892-8899F23D92AF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1984,7 +1940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603B48F4-D7BA-40DC-839D-6485F3BEA3F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE926A37-DB75-40DF-86A7-F2C91B679ECB}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
